--- a/Projects/STYR-N/Meas_yields.xlsx
+++ b/Projects/STYR-N/Meas_yields.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Overview" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,11 +220,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11784,7 +11787,7 @@
   <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K273"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projects/STYR-N/Meas_yields.xlsx
+++ b/Projects/STYR-N/Meas_yields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -345,14 +345,14 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11796,7 +11796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
@@ -24497,8 +24497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24507,7 +24507,7 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="13">
         <v>38874</v>
       </c>
@@ -24533,7 +24533,11 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>B3-B2</f>
+        <v>36</v>
+      </c>
       <c r="B3" s="13">
         <v>38910</v>
       </c>
@@ -24559,7 +24563,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>B4-B3</f>
+        <v>42</v>
+      </c>
       <c r="B4" s="13">
         <v>38952</v>
       </c>
@@ -24585,7 +24593,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>B5-B4</f>
+        <v>49</v>
+      </c>
       <c r="B5" s="13">
         <v>39001</v>
       </c>
@@ -24611,7 +24623,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:A16" si="0">B6-B5</f>
+        <v>225</v>
+      </c>
       <c r="B6" s="13">
         <v>39226</v>
       </c>
@@ -24637,7 +24653,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="B7" s="13">
         <v>39266</v>
       </c>
@@ -24663,7 +24683,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="B8" s="13">
         <v>39301</v>
       </c>
@@ -24689,7 +24713,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>B9-B7</f>
+        <v>42</v>
+      </c>
       <c r="B9" s="13">
         <v>39308</v>
       </c>
@@ -24715,7 +24743,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B10" s="13">
         <v>39371</v>
       </c>
@@ -24741,7 +24773,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
       <c r="B11" s="13">
         <v>39594</v>
       </c>
@@ -24767,7 +24803,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B12" s="13">
         <v>39595</v>
       </c>
@@ -24793,7 +24833,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B13" s="13">
         <v>39637</v>
       </c>
@@ -24819,7 +24863,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B14" s="13">
         <v>39679</v>
       </c>
@@ -24845,7 +24893,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="B15" s="13">
         <v>39681</v>
       </c>
@@ -24871,7 +24923,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="B16" s="13">
         <v>39735</v>
       </c>

--- a/Projects/STYR-N/Meas_yields.xlsx
+++ b/Projects/STYR-N/Meas_yields.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="107">
   <si>
     <t>Blanding</t>
   </si>
@@ -202,6 +202,153 @@
   <si>
     <t>date</t>
   </si>
+  <si>
+    <t>summary(d1[6:15])</t>
+  </si>
+  <si>
+    <t>DM_kgTS.ha</t>
+  </si>
+  <si>
+    <t>pct_N</t>
+  </si>
+  <si>
+    <t>pct_grass</t>
+  </si>
+  <si>
+    <t>pct_clover</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>:1.370</t>
+  </si>
+  <si>
+    <t>:0.128</t>
+  </si>
+  <si>
+    <t>:0.0830</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Qu.:1762</t>
+  </si>
+  <si>
+    <t>Qu.:2.527</t>
+  </si>
+  <si>
+    <t>Qu.:36.44</t>
+  </si>
+  <si>
+    <t>Qu.:30.03</t>
+  </si>
+  <si>
+    <t>Qu.:0.743</t>
+  </si>
+  <si>
+    <t>Qu.:0.6285</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>:2899</t>
+  </si>
+  <si>
+    <t>:3.060</t>
+  </si>
+  <si>
+    <t>:51.12</t>
+  </si>
+  <si>
+    <t>:46.01</t>
+  </si>
+  <si>
+    <t>:1.069</t>
+  </si>
+  <si>
+    <t>:1.2450</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>:3037</t>
+  </si>
+  <si>
+    <t>:2.965</t>
+  </si>
+  <si>
+    <t>:50.96</t>
+  </si>
+  <si>
+    <t>:46.85</t>
+  </si>
+  <si>
+    <t>:1.591</t>
+  </si>
+  <si>
+    <t>:1.3981</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Qu.:3946</t>
+  </si>
+  <si>
+    <t>Qu.:3.433</t>
+  </si>
+  <si>
+    <t>Qu.:66.57</t>
+  </si>
+  <si>
+    <t>Qu.:61.14</t>
+  </si>
+  <si>
+    <t>Qu.:2.227</t>
+  </si>
+  <si>
+    <t>Qu.:2.0445</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>:6646</t>
+  </si>
+  <si>
+    <t>:4.150</t>
+  </si>
+  <si>
+    <t>:98.56</t>
+  </si>
+  <si>
+    <t>:96.24</t>
+  </si>
+  <si>
+    <t>:5.943</t>
+  </si>
+  <si>
+    <t>:4.2660</t>
+  </si>
+  <si>
+    <t>:108.075</t>
+  </si>
+  <si>
+    <t>:112.534</t>
+  </si>
+  <si>
+    <t>NA's</t>
+  </si>
+  <si>
+    <t>:32</t>
+  </si>
+  <si>
+    <t>Ntot_kg</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -301,12 +448,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +553,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24495,19 +24709,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13">
         <v>38874</v>
       </c>
@@ -24532,8 +24747,11 @@
       <c r="N2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>B3-B2</f>
         <v>36</v>
@@ -24562,8 +24780,48 @@
       <c r="N3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>B4-B3</f>
         <v>42</v>
@@ -24592,8 +24850,53 @@
       <c r="N4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4">
+        <v>835</v>
+      </c>
+      <c r="T4">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4">
+        <v>3.76</v>
+      </c>
+      <c r="W4">
+        <v>1.44</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="23">
+        <v>2899</v>
+      </c>
+      <c r="AE4" s="23">
+        <v>3037</v>
+      </c>
+      <c r="AF4" s="23">
+        <v>835</v>
+      </c>
+      <c r="AG4" s="23">
+        <v>6646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>B5-B4</f>
         <v>49</v>
@@ -24622,8 +24925,53 @@
       <c r="N5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5">
+        <v>59.92</v>
+      </c>
+      <c r="U5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5">
+        <v>25.693999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>18.89</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" s="23">
+        <v>84.35</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>85.97</v>
+      </c>
+      <c r="AF5" s="23">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="23">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ref="A6:A16" si="0">B6-B5</f>
         <v>225</v>
@@ -24652,8 +25000,53 @@
       <c r="N6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6">
+        <v>84.35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6">
+        <v>34.634</v>
+      </c>
+      <c r="AA6">
+        <v>39.518999999999998</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>3.06</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="AF6" s="23">
+        <v>1.37</v>
+      </c>
+      <c r="AG6" s="23">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -24682,8 +25075,53 @@
       <c r="N7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7">
+        <v>85.97</v>
+      </c>
+      <c r="U7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7">
+        <v>41.921999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>43.137999999999998</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="23">
+        <v>51.12</v>
+      </c>
+      <c r="AE7" s="23">
+        <v>50.96</v>
+      </c>
+      <c r="AF7" s="23">
+        <v>3.76</v>
+      </c>
+      <c r="AG7" s="23">
+        <v>98.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -24712,8 +25150,53 @@
       <c r="N8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8">
+        <v>108.85</v>
+      </c>
+      <c r="U8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z8">
+        <v>54.396999999999998</v>
+      </c>
+      <c r="AA8">
+        <v>62.255000000000003</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>46.01</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>46.85</v>
+      </c>
+      <c r="AF8" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>96.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>B9-B7</f>
         <v>42</v>
@@ -24742,8 +25225,53 @@
       <c r="N9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <v>153.5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>1.069</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>1.591</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>0.128</v>
+      </c>
+      <c r="AG9" s="23">
+        <v>5.9429999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -24772,8 +25300,38 @@
       <c r="N10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="23">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>1.3980999999999999</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AG10" s="23">
+        <v>4.266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>223</v>
@@ -24802,8 +25360,24 @@
       <c r="N11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AC11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>34.634</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>41.921999999999997</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>108.075</v>
+      </c>
+      <c r="AI11" s="24"/>
+    </row>
+    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -24832,8 +25406,24 @@
       <c r="N12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AC12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>39.518999999999998</v>
+      </c>
+      <c r="AE12" s="23">
+        <v>43.137999999999998</v>
+      </c>
+      <c r="AF12" s="23">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="AG12" s="23">
+        <v>112.53400000000001</v>
+      </c>
+      <c r="AI12" s="24"/>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -24862,8 +25452,36 @@
       <c r="N13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R13" s="20"/>
+      <c r="S13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="X13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -24892,8 +25510,38 @@
       <c r="N14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="23">
+        <v>835</v>
+      </c>
+      <c r="T14" s="23">
+        <v>37</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="23">
+        <v>3.76</v>
+      </c>
+      <c r="W14" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -24922,8 +25570,38 @@
       <c r="N15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="23">
+        <v>59.92</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>25.693999999999999</v>
+      </c>
+      <c r="AA15" s="23">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -24934,8 +25612,70 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="23">
+        <v>84.35</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="23">
+        <v>34.634</v>
+      </c>
+      <c r="AA16" s="23">
+        <v>39.518999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="23">
+        <v>85.97</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>41.921999999999997</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>43.137999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -24978,8 +25718,38 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="23">
+        <v>108.85</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z18" s="23">
+        <v>54.396999999999998</v>
+      </c>
+      <c r="AA18" s="23">
+        <v>62.255000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -25022,8 +25792,38 @@
       <c r="N19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" s="23">
+        <v>153.5</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="W19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA19" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -25067,7 +25867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -25111,7 +25911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -25155,7 +25955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -25201,5 +26001,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/STYR-N/Meas_yields.xlsx
+++ b/Projects/STYR-N/Meas_yields.xlsx
@@ -596,6 +596,898 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Overview!$AC$17:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Overview!$AD$17:$AD$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB50-4971-9CA7-61820A658E82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="651860264"/>
+        <c:axId val="651863544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="651860264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651863544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="651863544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651860264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12017,10 +12909,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N273"/>
+  <dimension ref="A1:P273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J234" sqref="J234:J235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15869,7 +16762,7 @@
         <v>14.525119959984439</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>4</v>
       </c>
@@ -15917,7 +16810,7 @@
         <v>11.455657775065081</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>5</v>
       </c>
@@ -15965,7 +16858,7 @@
         <v>13.566460824712498</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>5</v>
       </c>
@@ -16013,7 +16906,7 @@
         <v>3.9750154399325881</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5</v>
       </c>
@@ -16061,7 +16954,7 @@
         <v>67.836600999888731</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>5</v>
       </c>
@@ -16109,7 +17002,7 @@
         <v>49.477055326063606</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>5</v>
       </c>
@@ -16156,8 +17049,12 @@
         <f t="shared" si="7"/>
         <v>65.004231185663201</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <f>E86-E84</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5</v>
       </c>
@@ -16205,7 +17102,7 @@
         <v>47.665398558278355</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>5</v>
       </c>
@@ -16252,8 +17149,12 @@
         <f t="shared" si="7"/>
         <v>25.001666612202257</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <f>E88-E86</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5</v>
       </c>
@@ -16301,7 +17202,7 @@
         <v>23.138824868735277</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>5</v>
       </c>
@@ -16349,7 +17250,7 @@
         <v>54.145295458751058</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5</v>
       </c>
@@ -16397,7 +17298,7 @@
         <v>34.113507845417153</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>5</v>
       </c>
@@ -16444,8 +17345,12 @@
         <f t="shared" si="7"/>
         <v>63.052726694518491</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <f>E92-E90</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>5</v>
       </c>
@@ -16493,7 +17398,7 @@
         <v>39.933105468981367</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>5</v>
       </c>
@@ -16540,8 +17445,12 @@
         <f t="shared" si="7"/>
         <v>51.245105158687075</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <f>E94-E92</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5</v>
       </c>
@@ -16589,7 +17498,7 @@
         <v>42.346173355786988</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>5</v>
       </c>
@@ -16636,8 +17545,12 @@
         <f t="shared" si="7"/>
         <v>12.721512960374293</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <f>E96-E94</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>5</v>
       </c>
@@ -16685,7 +17598,7 @@
         <v>10.684780241513062</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>4</v>
       </c>
@@ -16733,7 +17646,7 @@
         <v>12.906178833864198</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>4</v>
       </c>
@@ -16781,7 +17694,7 @@
         <v>28.855806311528656</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>4</v>
       </c>
@@ -16828,8 +17741,12 @@
         <f t="shared" si="7"/>
         <v>20.912114077283597</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <f>E100-E98</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -16877,7 +17794,7 @@
         <v>34.961483686706281</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>4</v>
       </c>
@@ -16924,8 +17841,12 @@
         <f t="shared" si="7"/>
         <v>71.816860287987467</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <f>E102-E100</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>4</v>
       </c>
@@ -16973,7 +17894,7 @@
         <v>91.356968079429834</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>4</v>
       </c>
@@ -17020,8 +17941,12 @@
         <f t="shared" si="7"/>
         <v>22.154990931702823</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <f>E104-E102</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>4</v>
       </c>
@@ -17069,7 +17994,7 @@
         <v>23.127065975572357</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>4</v>
       </c>
@@ -17117,7 +18042,7 @@
         <v>50.033033841371157</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>4</v>
       </c>
@@ -17165,7 +18090,7 @@
         <v>46.220471409463435</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>4</v>
       </c>
@@ -17213,7 +18138,7 @@
         <v>57.305194746853921</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>4</v>
       </c>
@@ -17261,7 +18186,7 @@
         <v>42.149997014369781</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>4</v>
       </c>
@@ -17309,7 +18234,7 @@
         <v>66.267724520128112</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>4</v>
       </c>
@@ -17357,7 +18282,7 @@
         <v>81.099382513208937</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>4</v>
       </c>
@@ -25540,7 +26465,7 @@
   <dimension ref="A2:AI23"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AG12"/>
+      <selection activeCell="AC17" sqref="AC17:AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26471,7 +27396,7 @@
         <v>39.518999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R17" s="22" t="s">
         <v>81</v>
       </c>
@@ -26502,8 +27427,14 @@
       <c r="AA17" s="23">
         <v>43.137999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>1500</v>
+      </c>
+      <c r="AD17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -26576,8 +27507,14 @@
       <c r="AA18" s="23">
         <v>62.255000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>2000</v>
+      </c>
+      <c r="AD18" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -26650,8 +27587,14 @@
       <c r="AA19" s="23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC19">
+        <v>7500</v>
+      </c>
+      <c r="AD19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -26695,7 +27638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -26739,7 +27682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -26783,7 +27726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -26830,5 +27773,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>